--- a/RAAL/Production/Input/GHI_2024-02-08.xlsx
+++ b/RAAL/Production/Input/GHI_2024-02-08.xlsx
@@ -487,22 +487,22 @@
         <v>15</v>
       </c>
       <c r="G2">
-        <v>2652.02</v>
+        <v>2652.08</v>
       </c>
       <c r="H2">
-        <v>5890.13</v>
+        <v>5890.41</v>
       </c>
       <c r="I2">
-        <v>686.84</v>
+        <v>686.8200000000001</v>
       </c>
       <c r="J2">
-        <v>852.77</v>
+        <v>666.11</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>852.77</v>
+        <v>666.11</v>
       </c>
     </row>
   </sheetData>
@@ -878,13 +878,13 @@
         <v>4.01</v>
       </c>
       <c r="K9">
-        <v>0.88</v>
+        <v>0.64</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.88</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -910,22 +910,22 @@
         <v>8</v>
       </c>
       <c r="H10">
-        <v>84.2</v>
+        <v>84.20999999999999</v>
       </c>
       <c r="I10">
-        <v>377.49</v>
+        <v>377.5</v>
       </c>
       <c r="J10">
         <v>43.19</v>
       </c>
       <c r="K10">
-        <v>30.6</v>
+        <v>21.31</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>30.6</v>
+        <v>21.31</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -960,13 +960,13 @@
         <v>68.34999999999999</v>
       </c>
       <c r="K11">
-        <v>82.94</v>
+        <v>55.31</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>82.94</v>
+        <v>55.31</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -995,19 +995,19 @@
         <v>337.7</v>
       </c>
       <c r="I12">
-        <v>712.23</v>
+        <v>712.24</v>
       </c>
       <c r="J12">
         <v>82.51000000000001</v>
       </c>
       <c r="K12">
-        <v>122</v>
+        <v>84.70999999999999</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>122</v>
+        <v>84.70999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1036,19 +1036,19 @@
         <v>417.05</v>
       </c>
       <c r="I13">
-        <v>763.83</v>
+        <v>763.85</v>
       </c>
       <c r="J13">
         <v>90.23999999999999</v>
       </c>
       <c r="K13">
-        <v>142.53</v>
+        <v>104.57</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>142.53</v>
+        <v>104.57</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -1077,19 +1077,19 @@
         <v>447.84</v>
       </c>
       <c r="I14">
-        <v>781.1799999999999</v>
+        <v>781.1900000000001</v>
       </c>
       <c r="J14">
         <v>92.97</v>
       </c>
       <c r="K14">
-        <v>146.14</v>
+        <v>112.57</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>146.14</v>
+        <v>112.57</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1118,19 +1118,19 @@
         <v>426.54</v>
       </c>
       <c r="I15">
-        <v>769.42</v>
+        <v>769.4400000000001</v>
       </c>
       <c r="J15">
-        <v>91.08</v>
+        <v>91.06999999999999</v>
       </c>
       <c r="K15">
-        <v>133.21</v>
+        <v>107.5</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>133.21</v>
+        <v>107.5</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1156,22 +1156,22 @@
         <v>14</v>
       </c>
       <c r="H16">
-        <v>355.55</v>
+        <v>355.57</v>
       </c>
       <c r="I16">
-        <v>725.01</v>
+        <v>725.05</v>
       </c>
       <c r="J16">
-        <v>84.31999999999999</v>
+        <v>84.31</v>
       </c>
       <c r="K16">
-        <v>101.71</v>
+        <v>89.31</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>101.71</v>
+        <v>89.31</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -1197,22 +1197,22 @@
         <v>15</v>
       </c>
       <c r="H17">
-        <v>243.68</v>
+        <v>243.69</v>
       </c>
       <c r="I17">
-        <v>632.11</v>
+        <v>632.17</v>
       </c>
       <c r="J17">
-        <v>71.54000000000001</v>
+        <v>71.53</v>
       </c>
       <c r="K17">
-        <v>62.05</v>
+        <v>60.92</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>62.05</v>
+        <v>60.92</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1238,22 +1238,22 @@
         <v>16</v>
       </c>
       <c r="H18">
-        <v>108.77</v>
+        <v>108.78</v>
       </c>
       <c r="I18">
-        <v>436.93</v>
+        <v>437</v>
       </c>
       <c r="J18">
         <v>49.14</v>
       </c>
       <c r="K18">
-        <v>28.56</v>
+        <v>27.2</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>28.56</v>
+        <v>27.2</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1282,19 +1282,19 @@
         <v>8.289999999999999</v>
       </c>
       <c r="I19">
-        <v>62.61</v>
+        <v>62.64</v>
       </c>
       <c r="J19">
         <v>9.49</v>
       </c>
       <c r="K19">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
     </row>
     <row r="20" spans="1:13">

--- a/RAAL/Production/Input/GHI_2024-02-08.xlsx
+++ b/RAAL/Production/Input/GHI_2024-02-08.xlsx
@@ -487,22 +487,22 @@
         <v>15</v>
       </c>
       <c r="G2">
-        <v>2652.08</v>
+        <v>2652.19</v>
       </c>
       <c r="H2">
-        <v>5890.41</v>
+        <v>5890.93</v>
       </c>
       <c r="I2">
-        <v>686.8200000000001</v>
+        <v>686.78</v>
       </c>
       <c r="J2">
-        <v>666.11</v>
+        <v>665.4400000000001</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>666.11</v>
+        <v>665.4400000000001</v>
       </c>
     </row>
   </sheetData>
@@ -872,7 +872,7 @@
         <v>2.52</v>
       </c>
       <c r="I9">
-        <v>22.6</v>
+        <v>22.61</v>
       </c>
       <c r="J9">
         <v>4.01</v>
@@ -913,19 +913,19 @@
         <v>84.20999999999999</v>
       </c>
       <c r="I10">
-        <v>377.5</v>
+        <v>377.56</v>
       </c>
       <c r="J10">
         <v>43.19</v>
       </c>
       <c r="K10">
-        <v>21.31</v>
+        <v>21.28</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>21.31</v>
+        <v>21.28</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -951,22 +951,22 @@
         <v>9</v>
       </c>
       <c r="H11">
-        <v>219.87</v>
+        <v>219.89</v>
       </c>
       <c r="I11">
-        <v>606.72</v>
+        <v>606.79</v>
       </c>
       <c r="J11">
         <v>68.34999999999999</v>
       </c>
       <c r="K11">
-        <v>55.31</v>
+        <v>55.13</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>55.31</v>
+        <v>55.13</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -992,22 +992,22 @@
         <v>10</v>
       </c>
       <c r="H12">
-        <v>337.7</v>
+        <v>337.72</v>
       </c>
       <c r="I12">
-        <v>712.24</v>
+        <v>712.29</v>
       </c>
       <c r="J12">
-        <v>82.51000000000001</v>
+        <v>82.5</v>
       </c>
       <c r="K12">
-        <v>84.70999999999999</v>
+        <v>84.56</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>84.70999999999999</v>
+        <v>84.56</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1036,19 +1036,19 @@
         <v>417.05</v>
       </c>
       <c r="I13">
-        <v>763.85</v>
+        <v>763.86</v>
       </c>
       <c r="J13">
         <v>90.23999999999999</v>
       </c>
       <c r="K13">
-        <v>104.57</v>
+        <v>104.38</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>104.57</v>
+        <v>104.38</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -1074,22 +1074,22 @@
         <v>12</v>
       </c>
       <c r="H14">
-        <v>447.84</v>
+        <v>447.85</v>
       </c>
       <c r="I14">
-        <v>781.1900000000001</v>
+        <v>781.2</v>
       </c>
       <c r="J14">
-        <v>92.97</v>
+        <v>92.95999999999999</v>
       </c>
       <c r="K14">
-        <v>112.57</v>
+        <v>112.26</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>112.57</v>
+        <v>112.26</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1115,22 +1115,22 @@
         <v>13</v>
       </c>
       <c r="H15">
-        <v>426.54</v>
+        <v>426.56</v>
       </c>
       <c r="I15">
-        <v>769.4400000000001</v>
+        <v>769.47</v>
       </c>
       <c r="J15">
         <v>91.06999999999999</v>
       </c>
       <c r="K15">
-        <v>107.5</v>
+        <v>107.45</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>107.5</v>
+        <v>107.45</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1156,22 +1156,22 @@
         <v>14</v>
       </c>
       <c r="H16">
-        <v>355.57</v>
+        <v>355.59</v>
       </c>
       <c r="I16">
-        <v>725.05</v>
+        <v>725.12</v>
       </c>
       <c r="J16">
-        <v>84.31</v>
+        <v>84.3</v>
       </c>
       <c r="K16">
-        <v>89.31</v>
+        <v>89.54000000000001</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>89.31</v>
+        <v>89.54000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -1197,22 +1197,22 @@
         <v>15</v>
       </c>
       <c r="H17">
-        <v>243.69</v>
+        <v>243.71</v>
       </c>
       <c r="I17">
-        <v>632.17</v>
+        <v>632.27</v>
       </c>
       <c r="J17">
         <v>71.53</v>
       </c>
       <c r="K17">
-        <v>60.92</v>
+        <v>60.93</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>60.92</v>
+        <v>60.93</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1238,10 +1238,10 @@
         <v>16</v>
       </c>
       <c r="H18">
-        <v>108.78</v>
+        <v>108.79</v>
       </c>
       <c r="I18">
-        <v>437</v>
+        <v>437.09</v>
       </c>
       <c r="J18">
         <v>49.14</v>
@@ -1279,10 +1279,10 @@
         <v>17</v>
       </c>
       <c r="H19">
-        <v>8.289999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="I19">
-        <v>62.64</v>
+        <v>62.66</v>
       </c>
       <c r="J19">
         <v>9.49</v>
